--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,6 +879,9 @@
     <t>Bundle.entry:messageheader.fullUrl</t>
   </si>
   <si>
+    <t>Uri de identificación dentro del Bundle</t>
+  </si>
+  <si>
     <t>Bundle.entry:messageheader.resource</t>
   </si>
   <si>
@@ -1356,7 +1359,7 @@
 </t>
   </si>
   <si>
-    <t>Centro de salud que termina la interconsulta.</t>
+    <t>Lugar donde se realizó la interconsulta.</t>
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
@@ -7860,7 +7863,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>77</v>
@@ -7872,7 +7875,7 @@
         <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>190</v>
@@ -7957,7 +7960,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>192</v>
@@ -7983,13 +7986,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8055,10 +8058,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8069,7 +8072,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>196</v>
@@ -8181,7 +8184,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
@@ -8293,7 +8296,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>201</v>
@@ -8407,7 +8410,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>202</v>
@@ -8523,7 +8526,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>203</v>
@@ -8637,7 +8640,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>209</v>
@@ -8751,7 +8754,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>214</v>
@@ -8863,7 +8866,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>218</v>
@@ -8975,7 +8978,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -9089,7 +9092,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>220</v>
@@ -9205,7 +9208,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>221</v>
@@ -9317,7 +9320,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>226</v>
@@ -9431,7 +9434,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>230</v>
@@ -9543,7 +9546,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>233</v>
@@ -9655,7 +9658,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>235</v>
@@ -9767,7 +9770,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>238</v>
@@ -9879,7 +9882,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>241</v>
@@ -9991,7 +9994,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>245</v>
@@ -10103,7 +10106,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>246</v>
@@ -10217,7 +10220,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -10333,7 +10336,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>248</v>
@@ -10445,7 +10448,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>251</v>
@@ -10557,7 +10560,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>254</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>258</v>
@@ -10785,7 +10788,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>262</v>
@@ -10899,13 +10902,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10930,7 +10933,7 @@
         <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>178</v>
@@ -11013,7 +11016,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>182</v>
@@ -11125,7 +11128,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>183</v>
@@ -11239,7 +11242,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>184</v>
@@ -11355,7 +11358,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>185</v>
@@ -11467,7 +11470,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>188</v>
@@ -11478,13 +11481,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11496,7 +11499,7 @@
         <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>190</v>
@@ -11581,14 +11584,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11607,13 +11610,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11679,10 +11682,10 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11693,7 +11696,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>196</v>
@@ -11805,7 +11808,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>200</v>
@@ -11917,7 +11920,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>201</v>
@@ -12031,7 +12034,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>202</v>
@@ -12147,7 +12150,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>203</v>
@@ -12261,7 +12264,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>209</v>
@@ -12375,7 +12378,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>214</v>
@@ -12487,7 +12490,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>218</v>
@@ -12599,7 +12602,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>219</v>
@@ -12713,7 +12716,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>220</v>
@@ -12829,7 +12832,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>221</v>
@@ -12941,7 +12944,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>226</v>
@@ -13055,7 +13058,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>230</v>
@@ -13167,7 +13170,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>233</v>
@@ -13279,7 +13282,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>235</v>
@@ -13391,7 +13394,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>238</v>
@@ -13503,7 +13506,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>241</v>
@@ -13615,7 +13618,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>245</v>
@@ -13727,7 +13730,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>246</v>
@@ -13841,7 +13844,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>247</v>
@@ -13957,7 +13960,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>248</v>
@@ -14069,7 +14072,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>251</v>
@@ -14181,7 +14184,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>254</v>
@@ -14295,7 +14298,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>258</v>
@@ -14409,7 +14412,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>262</v>
@@ -14523,13 +14526,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14554,7 +14557,7 @@
         <v>145</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>178</v>
@@ -14637,7 +14640,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>182</v>
@@ -14749,7 +14752,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>183</v>
@@ -14863,7 +14866,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>184</v>
@@ -14979,7 +14982,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>185</v>
@@ -15091,7 +15094,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>188</v>
@@ -15102,13 +15105,13 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>77</v>
@@ -15120,7 +15123,7 @@
         <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>190</v>
@@ -15205,7 +15208,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>192</v>
@@ -15231,13 +15234,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15303,10 +15306,10 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -15317,7 +15320,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>196</v>
@@ -15429,7 +15432,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>200</v>
@@ -15541,7 +15544,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>201</v>
@@ -15655,7 +15658,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>202</v>
@@ -15771,7 +15774,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>203</v>
@@ -15885,7 +15888,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>209</v>
@@ -15999,7 +16002,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>214</v>
@@ -16111,7 +16114,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>218</v>
@@ -16223,7 +16226,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>219</v>
@@ -16337,7 +16340,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>220</v>
@@ -16453,7 +16456,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>221</v>
@@ -16565,7 +16568,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>226</v>
@@ -16679,7 +16682,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>230</v>
@@ -16791,7 +16794,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>233</v>
@@ -16903,7 +16906,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>235</v>
@@ -17015,7 +17018,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>238</v>
@@ -17127,7 +17130,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>241</v>
@@ -17239,7 +17242,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>245</v>
@@ -17351,7 +17354,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>246</v>
@@ -17465,7 +17468,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>247</v>
@@ -17581,7 +17584,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>248</v>
@@ -17693,7 +17696,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>251</v>
@@ -17805,7 +17808,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>254</v>
@@ -17919,7 +17922,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>258</v>
@@ -18033,7 +18036,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>262</v>
@@ -18147,13 +18150,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18178,7 +18181,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>178</v>
@@ -18261,7 +18264,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18373,7 +18376,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18487,7 +18490,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18603,7 +18606,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18715,7 +18718,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18726,13 +18729,13 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>77</v>
@@ -18744,7 +18747,7 @@
         <v>101</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>190</v>
@@ -18829,7 +18832,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -18855,13 +18858,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -18927,10 +18930,10 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>77</v>
@@ -18941,7 +18944,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -19053,7 +19056,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19165,7 +19168,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19279,7 +19282,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19395,7 +19398,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19509,7 +19512,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19623,7 +19626,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19735,7 +19738,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -19847,7 +19850,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -19961,7 +19964,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -20077,7 +20080,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20189,7 +20192,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20303,7 +20306,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20415,7 +20418,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20527,7 +20530,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20639,7 +20642,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20751,7 +20754,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -20863,7 +20866,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -20975,7 +20978,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -21089,7 +21092,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21205,7 +21208,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21317,7 +21320,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21429,7 +21432,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21543,7 +21546,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21657,7 +21660,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21771,13 +21774,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21802,7 +21805,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>178</v>
@@ -21885,7 +21888,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>182</v>
@@ -21997,7 +22000,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>183</v>
@@ -22111,7 +22114,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>184</v>
@@ -22227,7 +22230,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>185</v>
@@ -22339,7 +22342,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>188</v>
@@ -22350,13 +22353,13 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>77</v>
@@ -22368,7 +22371,7 @@
         <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>190</v>
@@ -22453,7 +22456,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>192</v>
@@ -22479,13 +22482,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22551,10 +22554,10 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22565,7 +22568,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>196</v>
@@ -22677,7 +22680,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>200</v>
@@ -22789,7 +22792,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>201</v>
@@ -22903,7 +22906,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>202</v>
@@ -23019,7 +23022,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>203</v>
@@ -23133,7 +23136,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>209</v>
@@ -23247,7 +23250,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>214</v>
@@ -23359,7 +23362,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>218</v>
@@ -23471,7 +23474,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>219</v>
@@ -23585,7 +23588,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>220</v>
@@ -23701,7 +23704,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>221</v>
@@ -23813,7 +23816,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>226</v>
@@ -23927,7 +23930,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>230</v>
@@ -24039,7 +24042,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>233</v>
@@ -24151,7 +24154,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>235</v>
@@ -24263,7 +24266,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>238</v>
@@ -24375,7 +24378,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>241</v>
@@ -24487,7 +24490,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>245</v>
@@ -24599,7 +24602,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>246</v>
@@ -24713,7 +24716,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>247</v>
@@ -24829,7 +24832,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>248</v>
@@ -24941,7 +24944,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>251</v>
@@ -25053,7 +25056,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>254</v>
@@ -25167,7 +25170,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>258</v>
@@ -25281,7 +25284,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>262</v>
@@ -25395,10 +25398,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -25421,19 +25424,19 @@
         <v>88</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -25482,7 +25485,7 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>78</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1125,7 +1125,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE|https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerAdministrativoLE}
 </t>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.49609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="179.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$241</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1098,34 +1098,34 @@
     <t>Bundle.entry:servicerequest.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:practitioner</t>
-  </si>
-  <si>
-    <t>practitioner</t>
+    <t>Bundle.entry:practitionerProfesional</t>
+  </si>
+  <si>
+    <t>practitionerProfesional</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso Practitioner</t>
   </si>
   <si>
-    <t>Bundle.entry:practitioner.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE|https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerAdministrativoLE}
+    <t>Bundle.entry:practitionerProfesional.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
 </t>
   </si>
   <si>
@@ -1141,79 +1141,182 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Bundle.entry:practitioner.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.outcome</t>
+    <t>Bundle.entry:practitionerProfesional.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo</t>
+  </si>
+  <si>
+    <t>practitionerAdmnistrativo</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerAdministrativoLE}
+</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdmnistrativo.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:practitionerRole</t>
@@ -1782,7 +1885,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN209"/>
+  <dimension ref="A1:AN241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1791,9 +1894,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.8359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1801,7 +1904,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -14539,7 +14642,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>87</v>
@@ -18163,7 +18266,7 @@
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>87</v>
@@ -18181,7 +18284,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>178</v>
@@ -18264,7 +18367,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18376,7 +18479,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18490,7 +18593,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18606,7 +18709,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18718,7 +18821,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18832,7 +18935,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -18858,13 +18961,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -18944,7 +19047,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -19056,7 +19159,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19168,7 +19271,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19282,7 +19385,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19398,7 +19501,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19512,7 +19615,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19626,7 +19729,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19738,7 +19841,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -19850,7 +19953,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -19964,7 +20067,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -20080,7 +20183,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20192,7 +20295,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20306,7 +20409,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20418,7 +20521,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20530,7 +20633,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20642,7 +20745,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20754,7 +20857,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -20866,7 +20969,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -20978,7 +21081,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -21092,7 +21195,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21208,7 +21311,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21320,7 +21423,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21432,7 +21535,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21546,7 +21649,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21660,7 +21763,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21774,13 +21877,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21805,7 +21908,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>178</v>
@@ -21888,7 +21991,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>182</v>
@@ -22000,7 +22103,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>183</v>
@@ -22114,7 +22217,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>184</v>
@@ -22230,7 +22333,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>185</v>
@@ -22342,7 +22445,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>188</v>
@@ -22456,7 +22559,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>192</v>
@@ -22482,13 +22585,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22554,10 +22657,10 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>434</v>
+        <v>358</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>435</v>
+        <v>359</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22568,7 +22671,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>196</v>
@@ -22680,7 +22783,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>200</v>
@@ -22792,7 +22895,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>201</v>
@@ -22906,7 +23009,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>202</v>
@@ -23022,7 +23125,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>203</v>
@@ -23136,7 +23239,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>209</v>
@@ -23250,7 +23353,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>214</v>
@@ -23362,7 +23465,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>218</v>
@@ -23474,7 +23577,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>219</v>
@@ -23588,7 +23691,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>220</v>
@@ -23704,7 +23807,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>221</v>
@@ -23816,7 +23919,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>226</v>
@@ -23930,7 +24033,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>230</v>
@@ -24042,7 +24145,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>233</v>
@@ -24154,7 +24257,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>235</v>
@@ -24266,7 +24369,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>238</v>
@@ -24378,7 +24481,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>241</v>
@@ -24490,7 +24593,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>245</v>
@@ -24602,7 +24705,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>246</v>
@@ -24716,7 +24819,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>247</v>
@@ -24832,7 +24935,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>248</v>
@@ -24944,7 +25047,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>251</v>
@@ -25056,7 +25159,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>254</v>
@@ -25170,7 +25273,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>258</v>
@@ -25284,7 +25387,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>262</v>
@@ -25398,18 +25501,20 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C209" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>87</v>
@@ -25424,20 +25529,16 @@
         <v>88</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>462</v>
+        <v>145</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
         <v>77</v>
       </c>
@@ -25485,35 +25586,3661 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN209" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" hidden="true">
+      <c r="A210" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q210" s="2"/>
+      <c r="R210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL210" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN210" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211" hidden="true">
+      <c r="A211" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G211" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O211" s="2"/>
+      <c r="P211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q211" s="2"/>
+      <c r="R211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL211" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN211" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" hidden="true">
+      <c r="A212" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AG209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH209" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI209" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ209" t="s" s="2">
+      <c r="B212" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G212" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q212" s="2"/>
+      <c r="R212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL212" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN212" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" hidden="true">
+      <c r="A213" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G213" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q213" s="2"/>
+      <c r="R213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK209" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL209" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM209" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN209" t="s" s="2">
+      <c r="AK213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN213" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" hidden="true">
+      <c r="A214" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G214" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H214" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O214" s="2"/>
+      <c r="P214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q214" s="2"/>
+      <c r="R214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH214" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ214" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN214" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="215" hidden="true">
+      <c r="A215" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G215" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H215" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K215" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q215" s="2"/>
+      <c r="R215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK215" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL215" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN215" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="216" hidden="true">
+      <c r="A216" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G216" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q216" s="2"/>
+      <c r="R216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF216" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH216" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI216" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ216" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN216" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="217" hidden="true">
+      <c r="A217" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G217" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q217" s="2"/>
+      <c r="R217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL217" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN217" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" hidden="true">
+      <c r="A218" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G218" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O218" s="2"/>
+      <c r="P218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q218" s="2"/>
+      <c r="R218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF218" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH218" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ218" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL218" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM218" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN218" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" hidden="true">
+      <c r="A219" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q219" s="2"/>
+      <c r="R219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL219" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN219" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" hidden="true">
+      <c r="A220" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G220" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O220" s="2"/>
+      <c r="P220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q220" s="2"/>
+      <c r="R220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X220" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF220" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH220" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ220" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN220" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" hidden="true">
+      <c r="A221" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O221" s="2"/>
+      <c r="P221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q221" s="2"/>
+      <c r="R221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN221" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" hidden="true">
+      <c r="A222" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+      <c r="P222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q222" s="2"/>
+      <c r="R222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN222" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="223" hidden="true">
+      <c r="A223" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q223" s="2"/>
+      <c r="R223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL223" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN223" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="224" hidden="true">
+      <c r="A224" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E224" s="2"/>
+      <c r="F224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O224" s="2"/>
+      <c r="P224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q224" s="2"/>
+      <c r="R224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL224" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN224" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="225" hidden="true">
+      <c r="A225" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q225" s="2"/>
+      <c r="R225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL225" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM225" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN225" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="226" hidden="true">
+      <c r="A226" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q226" s="2"/>
+      <c r="R226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM226" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN226" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="227" hidden="true">
+      <c r="A227" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E227" s="2"/>
+      <c r="F227" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q227" s="2"/>
+      <c r="R227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM227" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN227" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="228" hidden="true">
+      <c r="A228" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G228" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q228" s="2"/>
+      <c r="R228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN228" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="229" hidden="true">
+      <c r="A229" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q229" s="2"/>
+      <c r="R229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM229" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN229" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="230" hidden="true">
+      <c r="A230" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E230" s="2"/>
+      <c r="F230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q230" s="2"/>
+      <c r="R230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN230" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="231" hidden="true">
+      <c r="A231" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E231" s="2"/>
+      <c r="F231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G231" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q231" s="2"/>
+      <c r="R231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN231" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="232" hidden="true">
+      <c r="A232" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E232" s="2"/>
+      <c r="F232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G232" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN232" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="233" hidden="true">
+      <c r="A233" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G233" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q233" s="2"/>
+      <c r="R233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL233" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM233" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN233" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="234" hidden="true">
+      <c r="A234" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q234" s="2"/>
+      <c r="R234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL234" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN234" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="235" hidden="true">
+      <c r="A235" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E235" s="2"/>
+      <c r="F235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G235" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q235" s="2"/>
+      <c r="R235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL235" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN235" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" hidden="true">
+      <c r="A236" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G236" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q236" s="2"/>
+      <c r="R236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN236" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="237" hidden="true">
+      <c r="A237" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E237" s="2"/>
+      <c r="F237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G237" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+      <c r="P237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q237" s="2"/>
+      <c r="R237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN237" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="238" hidden="true">
+      <c r="A238" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E238" s="2"/>
+      <c r="F238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G238" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O238" s="2"/>
+      <c r="P238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q238" s="2"/>
+      <c r="R238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH238" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ238" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN238" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="239" hidden="true">
+      <c r="A239" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="F239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G239" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N239" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O239" s="2"/>
+      <c r="P239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q239" s="2"/>
+      <c r="R239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH239" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ239" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN239" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" hidden="true">
+      <c r="A240" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E240" s="2"/>
+      <c r="F240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G240" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O240" s="2"/>
+      <c r="P240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q240" s="2"/>
+      <c r="R240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF240" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN240" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="241" hidden="true">
+      <c r="A241" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C241" s="2"/>
+      <c r="D241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G241" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O241" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q241" s="2"/>
+      <c r="R241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN241" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN209">
+  <autoFilter ref="A1:AN241">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -25523,7 +29250,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI208">
+  <conditionalFormatting sqref="A2:AI240">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$209</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -582,8 +582,8 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
-</t>
+    <t>type:resource}
+profile:resource}</t>
   </si>
   <si>
     <t>closed</t>
@@ -622,7 +622,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1098,38 +1098,38 @@
     <t>Bundle.entry:servicerequest.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:practitionerProfesional</t>
-  </si>
-  <si>
-    <t>practitionerProfesional</t>
+    <t>Bundle.entry:practitioner</t>
+  </si>
+  <si>
+    <t>practitioner</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso Practitioner</t>
   </si>
   <si>
-    <t>Bundle.entry:practitionerProfesional.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
+    <t>Bundle.entry:practitioner.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE|https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerAdministrativoLE}
 </t>
   </si>
   <si>
-    <t>Profesional que prestó la atención al paciente</t>
+    <t>Profesional que finalizo la interconsulta al paciente</t>
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
@@ -1141,182 +1141,79 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Bundle.entry:practitionerProfesional.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerProfesional.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo</t>
-  </si>
-  <si>
-    <t>practitionerAdmnistrativo</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerAdministrativoLE}
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitionerAdmnistrativo.response.outcome</t>
+    <t>Bundle.entry:practitioner.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:practitionerRole</t>
@@ -1885,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN241"/>
+  <dimension ref="A1:AN209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1894,9 +1791,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1904,7 +1801,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="179.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -18266,7 +18163,7 @@
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>87</v>
@@ -18284,7 +18181,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>178</v>
@@ -18367,7 +18264,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18479,7 +18376,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18593,7 +18490,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18709,7 +18606,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18821,7 +18718,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18935,7 +18832,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -18961,13 +18858,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19047,7 +18944,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -19159,7 +19056,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19271,7 +19168,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19385,7 +19282,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19501,7 +19398,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19615,7 +19512,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19729,7 +19626,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19841,7 +19738,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -19953,7 +19850,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -20067,7 +19964,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -20183,7 +20080,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20295,7 +20192,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20409,7 +20306,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20521,7 +20418,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20633,7 +20530,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20745,7 +20642,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20857,7 +20754,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -20969,7 +20866,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -21081,7 +20978,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -21195,7 +21092,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21311,7 +21208,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21423,7 +21320,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21535,7 +21432,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21649,7 +21546,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21763,7 +21660,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21877,13 +21774,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21908,7 +21805,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>178</v>
@@ -21991,7 +21888,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>182</v>
@@ -22103,7 +22000,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>183</v>
@@ -22217,7 +22114,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>184</v>
@@ -22333,7 +22230,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>185</v>
@@ -22445,7 +22342,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>188</v>
@@ -22559,7 +22456,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>192</v>
@@ -22585,13 +22482,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22657,10 +22554,10 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>358</v>
+        <v>434</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>359</v>
+        <v>435</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22671,7 +22568,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>196</v>
@@ -22783,7 +22680,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>200</v>
@@ -22895,7 +22792,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>201</v>
@@ -23009,7 +22906,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>202</v>
@@ -23125,7 +23022,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>203</v>
@@ -23239,7 +23136,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>209</v>
@@ -23353,7 +23250,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>214</v>
@@ -23465,7 +23362,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>218</v>
@@ -23577,7 +23474,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>219</v>
@@ -23691,7 +23588,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>220</v>
@@ -23807,7 +23704,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>221</v>
@@ -23919,7 +23816,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>226</v>
@@ -24033,7 +23930,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>230</v>
@@ -24145,7 +24042,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>233</v>
@@ -24257,7 +24154,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>235</v>
@@ -24369,7 +24266,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>238</v>
@@ -24481,7 +24378,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>241</v>
@@ -24593,7 +24490,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>245</v>
@@ -24705,7 +24602,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>246</v>
@@ -24819,7 +24716,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>247</v>
@@ -24935,7 +24832,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>248</v>
@@ -25047,7 +24944,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>251</v>
@@ -25159,7 +25056,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>254</v>
@@ -25273,7 +25170,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>258</v>
@@ -25387,7 +25284,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>262</v>
@@ -25501,20 +25398,18 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C209" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>87</v>
@@ -25529,16 +25424,20 @@
         <v>88</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>145</v>
+        <v>462</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
       </c>
@@ -25586,19 +25485,19 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>175</v>
+        <v>461</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>77</v>
@@ -25610,3637 +25509,11 @@
         <v>77</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="210" hidden="true">
-      <c r="A210" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B210" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C210" s="2"/>
-      <c r="D210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E210" s="2"/>
-      <c r="F210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G210" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K210" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q210" s="2"/>
-      <c r="R210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF210" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH210" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL210" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN210" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="211" hidden="true">
-      <c r="A211" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B211" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E211" s="2"/>
-      <c r="F211" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K211" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O211" s="2"/>
-      <c r="P211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q211" s="2"/>
-      <c r="R211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF211" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG211" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ211" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL211" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN211" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="212" hidden="true">
-      <c r="A212" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B212" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C212" s="2"/>
-      <c r="D212" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E212" s="2"/>
-      <c r="F212" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I212" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J212" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K212" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q212" s="2"/>
-      <c r="R212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF212" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG212" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ212" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL212" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN212" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="213" hidden="true">
-      <c r="A213" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B213" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C213" s="2"/>
-      <c r="D213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E213" s="2"/>
-      <c r="F213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J213" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K213" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q213" s="2"/>
-      <c r="R213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF213" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ213" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN213" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="214" hidden="true">
-      <c r="A214" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B214" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C214" s="2"/>
-      <c r="D214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E214" s="2"/>
-      <c r="F214" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G214" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H214" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J214" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K214" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M214" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O214" s="2"/>
-      <c r="P214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q214" s="2"/>
-      <c r="R214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF214" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AG214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH214" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ214" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN214" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="215" hidden="true">
-      <c r="A215" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B215" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C215" s="2"/>
-      <c r="D215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E215" s="2"/>
-      <c r="F215" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G215" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H215" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K215" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-      <c r="P215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q215" s="2"/>
-      <c r="R215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF215" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG215" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH215" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK215" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AL215" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN215" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="216" hidden="true">
-      <c r="A216" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B216" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C216" s="2"/>
-      <c r="D216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E216" s="2"/>
-      <c r="F216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G216" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J216" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K216" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q216" s="2"/>
-      <c r="R216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF216" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AG216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH216" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI216" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AJ216" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN216" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="217" hidden="true">
-      <c r="A217" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B217" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C217" s="2"/>
-      <c r="D217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E217" s="2"/>
-      <c r="F217" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G217" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K217" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q217" s="2"/>
-      <c r="R217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF217" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG217" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH217" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL217" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN217" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="218" hidden="true">
-      <c r="A218" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B218" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C218" s="2"/>
-      <c r="D218" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E218" s="2"/>
-      <c r="F218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K218" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L218" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O218" s="2"/>
-      <c r="P218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q218" s="2"/>
-      <c r="R218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF218" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG218" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ218" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL218" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN218" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="219" hidden="true">
-      <c r="A219" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B219" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C219" s="2"/>
-      <c r="D219" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E219" s="2"/>
-      <c r="F219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I219" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J219" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K219" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q219" s="2"/>
-      <c r="R219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF219" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ219" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL219" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN219" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="220" hidden="true">
-      <c r="A220" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B220" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E220" s="2"/>
-      <c r="F220" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G220" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J220" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O220" s="2"/>
-      <c r="P220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q220" s="2"/>
-      <c r="R220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X220" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y220" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z220" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AA220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF220" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG220" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH220" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ220" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN220" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="221" hidden="true">
-      <c r="A221" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B221" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C221" s="2"/>
-      <c r="D221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E221" s="2"/>
-      <c r="F221" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G221" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J221" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K221" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O221" s="2"/>
-      <c r="P221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q221" s="2"/>
-      <c r="R221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF221" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG221" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH221" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ221" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN221" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="222" hidden="true">
-      <c r="A222" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B222" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C222" s="2"/>
-      <c r="D222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E222" s="2"/>
-      <c r="F222" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G222" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J222" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K222" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q222" s="2"/>
-      <c r="R222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF222" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG222" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH222" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI222" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AJ222" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN222" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="223" hidden="true">
-      <c r="A223" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B223" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C223" s="2"/>
-      <c r="D223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E223" s="2"/>
-      <c r="F223" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G223" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K223" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-      <c r="P223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q223" s="2"/>
-      <c r="R223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF223" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG223" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH223" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL223" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN223" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="224" hidden="true">
-      <c r="A224" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B224" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E224" s="2"/>
-      <c r="F224" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K224" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M224" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O224" s="2"/>
-      <c r="P224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q224" s="2"/>
-      <c r="R224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF224" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG224" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ224" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL224" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN224" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="225" hidden="true">
-      <c r="A225" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B225" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C225" s="2"/>
-      <c r="D225" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E225" s="2"/>
-      <c r="F225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I225" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J225" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K225" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q225" s="2"/>
-      <c r="R225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF225" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG225" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ225" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL225" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN225" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="226" hidden="true">
-      <c r="A226" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B226" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C226" s="2"/>
-      <c r="D226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E226" s="2"/>
-      <c r="F226" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G226" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J226" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K226" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L226" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q226" s="2"/>
-      <c r="R226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X226" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y226" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Z226" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG226" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH226" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ226" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN226" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="227" hidden="true">
-      <c r="A227" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B227" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E227" s="2"/>
-      <c r="F227" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G227" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J227" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K227" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O227" s="2"/>
-      <c r="P227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q227" s="2"/>
-      <c r="R227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF227" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG227" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH227" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ227" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN227" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="228" hidden="true">
-      <c r="A228" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B228" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C228" s="2"/>
-      <c r="D228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E228" s="2"/>
-      <c r="F228" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G228" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J228" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K228" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-      <c r="P228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q228" s="2"/>
-      <c r="R228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF228" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AG228" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH228" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ228" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="229" hidden="true">
-      <c r="A229" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B229" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="D229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E229" s="2"/>
-      <c r="F229" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G229" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J229" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K229" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-      <c r="P229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q229" s="2"/>
-      <c r="R229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF229" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG229" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH229" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ229" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN229" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="230" hidden="true">
-      <c r="A230" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B230" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C230" s="2"/>
-      <c r="D230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E230" s="2"/>
-      <c r="F230" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G230" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J230" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K230" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-      <c r="P230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q230" s="2"/>
-      <c r="R230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF230" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG230" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH230" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ230" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN230" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="231" hidden="true">
-      <c r="A231" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B231" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E231" s="2"/>
-      <c r="F231" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G231" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J231" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K231" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-      <c r="P231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q231" s="2"/>
-      <c r="R231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF231" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG231" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH231" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ231" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN231" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="232" hidden="true">
-      <c r="A232" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B232" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C232" s="2"/>
-      <c r="D232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E232" s="2"/>
-      <c r="F232" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G232" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J232" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K232" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-      <c r="P232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q232" s="2"/>
-      <c r="R232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF232" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG232" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH232" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI232" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AJ232" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN232" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="233" hidden="true">
-      <c r="A233" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B233" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E233" s="2"/>
-      <c r="F233" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q233" s="2"/>
-      <c r="R233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF233" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG233" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH233" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL233" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN233" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="234" hidden="true">
-      <c r="A234" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B234" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C234" s="2"/>
-      <c r="D234" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E234" s="2"/>
-      <c r="F234" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K234" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O234" s="2"/>
-      <c r="P234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q234" s="2"/>
-      <c r="R234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG234" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ234" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL234" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN234" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="235" hidden="true">
-      <c r="A235" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B235" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C235" s="2"/>
-      <c r="D235" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E235" s="2"/>
-      <c r="F235" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G235" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I235" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J235" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K235" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q235" s="2"/>
-      <c r="R235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF235" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG235" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH235" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ235" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL235" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM235" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN235" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="236" hidden="true">
-      <c r="A236" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B236" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C236" s="2"/>
-      <c r="D236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E236" s="2"/>
-      <c r="F236" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G236" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J236" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K236" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L236" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
-      <c r="P236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q236" s="2"/>
-      <c r="R236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF236" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG236" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH236" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ236" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM236" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN236" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="237" hidden="true">
-      <c r="A237" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B237" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E237" s="2"/>
-      <c r="F237" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G237" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J237" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K237" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L237" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
-      <c r="P237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q237" s="2"/>
-      <c r="R237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF237" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG237" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH237" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ237" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM237" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN237" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="238" hidden="true">
-      <c r="A238" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B238" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C238" s="2"/>
-      <c r="D238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E238" s="2"/>
-      <c r="F238" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G238" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J238" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K238" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O238" s="2"/>
-      <c r="P238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q238" s="2"/>
-      <c r="R238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF238" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AG238" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH238" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ238" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM238" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN238" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="239" hidden="true">
-      <c r="A239" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B239" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C239" s="2"/>
-      <c r="D239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E239" s="2"/>
-      <c r="F239" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G239" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J239" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K239" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O239" s="2"/>
-      <c r="P239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q239" s="2"/>
-      <c r="R239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF239" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG239" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH239" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ239" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM239" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN239" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="240" hidden="true">
-      <c r="A240" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B240" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E240" s="2"/>
-      <c r="F240" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G240" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J240" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K240" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L240" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O240" s="2"/>
-      <c r="P240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q240" s="2"/>
-      <c r="R240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF240" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG240" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH240" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM240" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN240" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="241" hidden="true">
-      <c r="A241" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B241" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C241" s="2"/>
-      <c r="D241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E241" s="2"/>
-      <c r="F241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G241" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J241" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K241" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q241" s="2"/>
-      <c r="R241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF241" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH241" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ241" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN241" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN241">
+  <autoFilter ref="A1:AN209">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -29250,7 +25523,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI240">
+  <conditionalFormatting sqref="A2:AI208">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1791,17 +1791,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="162.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1810,26 +1810,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.0625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7297,7 +7297,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
@@ -10921,7 +10921,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>77</v>
@@ -14545,7 +14545,7 @@
         <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>77</v>
@@ -18169,7 +18169,7 @@
         <v>87</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>77</v>
@@ -21793,7 +21793,7 @@
         <v>87</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>77</v>
